--- a/presentation/roofline.xlsx
+++ b/presentation/roofline.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Memory Bandwidth</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>Perf [Y] 143</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
 </sst>
 </file>
@@ -250,6 +253,726 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{96D82D31-6F14-4D65-952D-8AF1183B0440}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{815AF5EC-68F4-405E-8A28-B128E7DF3A20}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9BEE6C9A-34C5-4957-A69E-A2EE421FCD88}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FCD5AC1-BEF9-482C-8F7E-121774D429E5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{770828C6-9530-441A-836A-E0E5FDE317AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7D7B4504-325F-41EB-8208-54C1D4AD72AB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{193E29DD-EE33-4FC4-B0C0-6B6448D30921}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{782A7741-AD93-4A63-9331-9F9A4E6293AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{272EE444-6BD2-4BAB-BD84-6233532E27B0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F60D5E43-C802-4A5A-B2E3-90671EC74FA3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{31CD4E24-E49B-4C06-8D25-EF552284A2C6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{35E753F9-3099-4F78-A6AA-998E5039E61E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C658255-D2B1-484B-9FEF-50BC5C8AAC43}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DBD899BB-C838-418C-A8B3-222889E70076}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{95D5719A-4DB2-4F2E-832F-66561EEE5432}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{719AAA7D-5274-4DD7-989B-52C03636FAA0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{02459553-376A-42EA-8F9A-5DB4BB6747E7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E687C8AD-FEE8-4C3A-91AD-9A79ECFC496E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DFD81EA4-1F27-4818-A578-95CB90A8851B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FCB463C7-7D3A-488F-9AD6-458AEE09A635}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$C$2:$C$21</c:f>
@@ -389,6 +1112,22 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$P$2:$P$21</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -420,6 +1159,705 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6DE723F1-9F17-4664-8CAE-E447BEA43921}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3CE117B9-76B3-4811-8403-86ADFB1226BC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EA94B6E6-EBC3-4704-919D-3C98EA85C137}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E4327CD6-29A5-45FA-88E2-509C51C1880D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8811775F-C354-4947-9BD5-D30EF1D53353}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8781946A-536F-450B-AB9B-5BBDA11E03C4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EF6F6B16-B347-478D-9373-4EB35B9F6825}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6A8FF779-DC7D-4552-B8BF-EA2F94ED6055}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9A3F2BC8-BE4F-4838-B546-21F26081337F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1632DFC8-FAED-4D62-8CB6-825D62648B62}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{982C2C7E-DC53-4A15-8C43-840B59E46423}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{FD000815-4B94-477D-BE6D-1CC9BE1E565C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{70859703-557F-4CA7-8E68-7DE10DA0D8EA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E511F44-F194-486F-B7D1-03832A70A771}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2E0B3F56-B3CD-4F5F-9942-5F7A51D9A6AF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{300715B0-F61E-4BE1-880F-484C918D00FF}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{71E6F4D8-CF3B-4096-9546-14D1DE7B062B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{12C73AC9-D46D-4BF5-8FCE-1469AE62202E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7EFB8D66-53E1-4AD6-BB21-6AE03EBC1791}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1AA94D98-21F7-4FA6-A4E8-BE0E727C37E1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$E$2:$E$21</c:f>
@@ -559,6 +1997,22 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$P$2:$P$21</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
@@ -596,6 +2050,726 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{665DE3A3-DB0D-4C1D-A687-7BB93BE06FD0}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4FFC61BD-1DCF-4BB0-895A-F72B30901539}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CF9C6E5D-8C4E-412A-99A0-74EACE4782F5}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3052E63A-20B4-467D-AD37-57811CC53392}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{460ECA33-7D91-43FF-9278-8FFDCCD74878}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E2B2A86F-4F4B-44E4-8E5D-B865BF3DCE9D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{2AE0A8D7-5779-4767-B9AF-710ABBEB48C7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1A0D335A-7AA3-4B4E-BB48-31D37DF9E0E4}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{553FFAD9-444E-4849-83F0-F00FE9CAFDB2}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7B7C6443-B766-4624-983C-AB397B2FE462}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6F9F6494-9624-40C3-A28A-1A7B72F47E42}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{167B07DB-A48A-4BCE-BF18-7C117D9783F7}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9DD4A0E9-07C9-423E-9A57-C75360D794D6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3012CD8C-4B9F-406B-80AF-764419CCDA90}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27840A8E-2C53-4E6E-883C-D00FDAF6711E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B82B9F43-E137-4DAC-AD59-3631A723EBFD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{4B291FB3-908F-4E47-9349-BF23951D15CD}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7A9BFA3A-D1C1-4273-AEA9-92A73A8EDB40}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{8A9B9B52-CC6A-4967-BA2C-E75C5CECEF9C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9965070A-E1C3-41C4-975A-C0794681C78D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$G$2:$G$21</c:f>
@@ -735,6 +2909,22 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$P$2:$P$21</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="7"/>
@@ -772,6 +2962,705 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{87112DEB-984C-43C9-AE4D-F164D6C05C5B}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D82CB0DA-BACD-4466-9D78-F045FE6CEDA6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7082D6D7-9828-49A0-AC92-CFE12CC98AE6}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27A9B5F7-F035-451F-B7BE-E6BC7802F830}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AAD1CBD6-7E84-4757-908F-5BE7B8802C57}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{53E6C9CF-9DA8-42A2-A68B-B94651FCC204}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{66E71B36-6B34-43CC-8122-53C240DD01BA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0EB75AE6-7E61-466E-906D-270FE983CEDC}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{98F0C792-F089-43F1-B214-6D7DC92C474C}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{AB1C2638-F54E-459F-BCC1-CE41ED369778}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C043B892-B0CF-4A97-B598-0DDAE5C2C678}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{562EE730-7674-4625-9C1F-D1BF056D1559}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="12"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{6F8A4BA7-D325-4EE5-A0E9-FED843352DBB}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="13"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E0E049F8-A9B3-4724-B68B-4265AEA4ACDA}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CB435B1F-7202-49BC-9528-FB0AAC96E332}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="15"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0836A6EB-5B27-430C-BF5D-51D2D62E664E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="16"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86658413-2E6C-49F2-84FC-B94616305D4D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D0F4C892-4301-4490-8EC8-7C31847F22B3}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="18"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C1791C0D-64C0-4183-900A-D5770334E34D}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9EEEB59D-0C34-4F67-9195-EA8285B57355}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$I$2:$I$21</c:f>
@@ -911,6 +3800,22 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>Tabelle1!$P$2:$P$21</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="20"/>
+                  <c:pt idx="0">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>2000</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -945,6 +3850,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$2:$A$3</c:f>
@@ -1010,6 +3972,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$5:$A$6</c:f>
@@ -1106,6 +4125,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$8:$A$9</c:f>
@@ -1202,6 +4278,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
               <c:f>Tabelle1!$A$11:$A$12</c:f>
@@ -1236,7 +4369,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2716,15 +5849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2752,8 +5885,11 @@
       <c r="J1" t="s">
         <v>11</v>
       </c>
+      <c r="P1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>1/1000</f>
         <v>1E-3</v>
@@ -2786,8 +5922,11 @@
       <c r="J2">
         <v>0.40439799999999998</v>
       </c>
+      <c r="P2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>1*3</f>
         <v>3</v>
@@ -2821,7 +5960,7 @@
         <v>1.2044280000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2850,7 +5989,7 @@
         <v>1.4989140000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1E-4</v>
       </c>
@@ -2882,7 +6021,7 @@
         <v>1.6936990000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -2914,7 +6053,7 @@
         <v>1.634004</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -2943,7 +6082,7 @@
         <v>1.725392</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1E-4</v>
       </c>
@@ -2975,7 +6114,7 @@
         <v>1.7862800000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>20</v>
       </c>
@@ -3007,7 +6146,7 @@
         <v>1.758807</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>3</v>
       </c>
@@ -3036,7 +6175,7 @@
         <v>1.712569</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1E-4</v>
       </c>
@@ -3068,7 +6207,7 @@
         <v>1.712974</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>20</v>
       </c>
@@ -3100,7 +6239,7 @@
         <v>1.6874769999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>0.332847</v>
       </c>
@@ -3126,7 +6265,7 @@
         <v>1.6710419999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14">
         <v>0.31190000000000001</v>
       </c>
@@ -3152,7 +6291,7 @@
         <v>1.658201</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>0.28401399999999999</v>
       </c>
@@ -3178,7 +6317,7 @@
         <v>1.6448</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C16">
         <v>0.28099299999999999</v>
       </c>
@@ -3204,7 +6343,7 @@
         <v>1.603788</v>
       </c>
     </row>
-    <row r="17" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>0.26733499999999999</v>
       </c>
@@ -3230,7 +6369,7 @@
         <v>1.613362</v>
       </c>
     </row>
-    <row r="18" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C18">
         <v>0.26852399999999998</v>
       </c>
@@ -3256,7 +6395,7 @@
         <v>1.616066</v>
       </c>
     </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C19">
         <v>0.257467</v>
       </c>
@@ -3282,7 +6421,7 @@
         <v>0.92397600000000002</v>
       </c>
     </row>
-    <row r="20" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C20">
         <v>0.27164899999999997</v>
       </c>
@@ -3308,7 +6447,7 @@
         <v>1.5702039999999999</v>
       </c>
     </row>
-    <row r="21" spans="3:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
       <c r="C21">
         <v>0.26516000000000001</v>
       </c>
@@ -3332,6 +6471,9 @@
       </c>
       <c r="J21">
         <v>1.473622</v>
+      </c>
+      <c r="P21">
+        <v>2000</v>
       </c>
     </row>
   </sheetData>

--- a/presentation/roofline.xlsx
+++ b/presentation/roofline.xlsx
@@ -56,13 +56,13 @@
     <t>Perf [Y] 129</t>
   </si>
   <si>
-    <t>OpInt [X] 143</t>
+    <t>N</t>
   </si>
   <si>
-    <t>Perf [Y] 143</t>
+    <t>OpInt [X] 125</t>
   </si>
   <si>
-    <t>N</t>
+    <t>Perf [Y] 125</t>
   </si>
 </sst>
 </file>
@@ -106,6 +106,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9E480E"/>
+      <color rgb="FF9E4859"/>
+      <color rgb="FF255E91"/>
+      <color rgb="FF25728C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -262,16 +270,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{96D82D31-6F14-4D65-952D-8AF1183B0440}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{C4C20B1C-9D11-4B34-99B3-DBBAC8469141}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -295,16 +303,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{815AF5EC-68F4-405E-8A28-B128E7DF3A20}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{FF561B26-B3BA-40B0-92E4-F393E053AA41}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -328,16 +336,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9BEE6C9A-34C5-4957-A69E-A2EE421FCD88}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{BAFEEA6B-E670-48F9-9694-B6E5597EED4A}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -361,16 +369,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1FCD5AC1-BEF9-482C-8F7E-121774D429E5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{6A36A35A-C5BC-4504-9252-9F8F782C3090}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -394,16 +402,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{770828C6-9530-441A-836A-E0E5FDE317AD}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{EDA79A26-8E18-4FC7-A1AF-0579D4FBFA78}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -427,16 +435,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7D7B4504-325F-41EB-8208-54C1D4AD72AB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{97D43F73-4284-4062-939C-05FD93FA66E5}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -460,16 +468,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{193E29DD-EE33-4FC4-B0C0-6B6448D30921}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{609A9BD4-E308-4B76-8C5D-76CD84543F65}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -493,16 +501,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{782A7741-AD93-4A63-9331-9F9A4E6293AF}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{AC1BFEBE-4F83-4606-9504-9EAA59C960DB}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -526,16 +534,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{272EE444-6BD2-4BAB-BD84-6233532E27B0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{229DB27E-40E2-4722-8F29-C82A5FEBF431}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -559,16 +567,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F60D5E43-C802-4A5A-B2E3-90671EC74FA3}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{753C9F6A-B01F-4596-B8F2-AE52B7E89852}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -592,16 +600,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{31CD4E24-E49B-4C06-8D25-EF552284A2C6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{0C0C03AF-99A5-413B-BCDF-749F75250763}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -625,16 +633,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{35E753F9-3099-4F78-A6AA-998E5039E61E}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{BD27D67A-9545-4160-8799-66F1DC09F317}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -658,16 +666,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7C658255-D2B1-484B-9FEF-50BC5C8AAC43}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{E91F486A-32FA-47C1-9E47-A31EB303A32C}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -691,16 +699,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DBD899BB-C838-418C-A8B3-222889E70076}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{A7D6D7D2-002D-4F24-9B47-8ED3B838A0C4}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -733,18 +741,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -766,18 +773,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -799,18 +805,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -832,18 +837,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -865,18 +869,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -898,18 +901,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -928,7 +930,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -943,7 +945,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -980,64 +982,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.56933900000000004</c:v>
+                  <c:v>1.0379119999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.20885999999999999</c:v>
+                  <c:v>1.049004</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.27460699999999999</c:v>
+                  <c:v>0.74773999999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.28937200000000002</c:v>
+                  <c:v>1.132199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.52569900000000003</c:v>
+                  <c:v>0.98288699999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.56986000000000003</c:v>
+                  <c:v>0.70998499999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.53290099999999996</c:v>
+                  <c:v>0.53452100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.46197100000000002</c:v>
+                  <c:v>0.399285</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.538995</c:v>
+                  <c:v>0.37590299999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.46116200000000002</c:v>
+                  <c:v>0.32942199999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.382716</c:v>
+                  <c:v>0.29983799999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.332847</c:v>
+                  <c:v>0.27495799999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31190000000000001</c:v>
+                  <c:v>0.27063100000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.28401399999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.28099299999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.26733499999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.26852399999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.257467</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.27164899999999997</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.26516000000000001</c:v>
+                  <c:v>0.26322299999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,64 +1033,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.25823499999999999</c:v>
+                  <c:v>0.48068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.417711</c:v>
+                  <c:v>0.47358</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40315099999999998</c:v>
+                  <c:v>0.45042199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.45447599999999999</c:v>
+                  <c:v>0.477493</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.47169899999999998</c:v>
+                  <c:v>0.46513500000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.44168800000000003</c:v>
+                  <c:v>0.43133199999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.41598299999999999</c:v>
+                  <c:v>0.39941100000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.39249000000000001</c:v>
+                  <c:v>0.35965399999999997</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.37805800000000001</c:v>
+                  <c:v>0.35368500000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.35594399999999998</c:v>
+                  <c:v>0.33641500000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.33380199999999999</c:v>
+                  <c:v>0.32669599999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.30955100000000002</c:v>
+                  <c:v>0.31762800000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.31243900000000002</c:v>
+                  <c:v>0.31678499999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.30372100000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.29991400000000001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.29736499999999999</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.292908</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.29342400000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.294099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.29259200000000002</c:v>
+                  <c:v>0.31617000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1119,7 +1085,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>100</c:v>
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>900</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2000</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>2000</c:v>
@@ -1168,15 +1143,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6DE723F1-9F17-4664-8CAE-E447BEA43921}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{DDC3CA73-CDC6-4A59-A6F2-49DE18C1B20C}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1200,15 +1176,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CE117B9-76B3-4811-8403-86ADFB1226BC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{97DD2334-B2E5-4D5D-B065-BBE64F8CB46B}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1232,15 +1209,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EA94B6E6-EBC3-4704-919D-3C98EA85C137}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{9B3839E6-AABB-4B59-B579-E47055920884}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1264,15 +1242,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E4327CD6-29A5-45FA-88E2-509C51C1880D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{CD55D3D8-5F51-4BC2-BB63-8C4CAE683270}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1296,15 +1275,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8811775F-C354-4947-9BD5-D30EF1D53353}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{F624EF24-F846-4763-8468-FD30C9E06D36}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1328,15 +1308,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8781946A-536F-450B-AB9B-5BBDA11E03C4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{3C62ADB8-8E5F-4E5C-B84D-CCB3A005C0F4}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1360,15 +1341,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{EF6F6B16-B347-478D-9373-4EB35B9F6825}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{F6317C71-DE41-498D-B34D-17611A742D83}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1392,15 +1374,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6A8FF779-DC7D-4552-B8BF-EA2F94ED6055}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{A72D8FD1-0C41-4551-968E-F2C0D5325542}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1424,15 +1407,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9A3F2BC8-BE4F-4838-B546-21F26081337F}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{5538DB6F-E657-480B-853D-2E70F6D3441F}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1456,15 +1440,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1632DFC8-FAED-4D62-8CB6-825D62648B62}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{B7F58A75-7059-4C05-BA69-2CD9285D217E}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1488,15 +1473,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{982C2C7E-DC53-4A15-8C43-840B59E46423}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{0AAACEB9-4E13-4602-9E8A-F246AB4D3032}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1520,15 +1506,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FD000815-4B94-477D-BE6D-1CC9BE1E565C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{AC39C61E-95F1-4E36-8968-F80C606D6D25}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1552,15 +1539,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{70859703-557F-4CA7-8E68-7DE10DA0D8EA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{87606431-7F1A-4918-B8C5-0120E463544D}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1584,15 +1572,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2E511F44-F194-486F-B7D1-03832A70A771}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{BCA015B5-668D-4B91-B964-384AAE9122BD}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="b"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -1625,17 +1614,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1657,17 +1646,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1689,17 +1678,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1721,17 +1710,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1753,17 +1742,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1785,17 +1774,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="b"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -1814,7 +1803,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1829,6 +1818,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="b"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -1865,64 +1855,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.54643399999999998</c:v>
+                  <c:v>1.4519629999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.93573099999999998</c:v>
+                  <c:v>1.6618059999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.851021</c:v>
+                  <c:v>1.732972</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52551300000000001</c:v>
+                  <c:v>1.4245829999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.41557899999999998</c:v>
+                  <c:v>1.0179609999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.68193400000000004</c:v>
+                  <c:v>0.79296500000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.86881799999999998</c:v>
+                  <c:v>0.67207799999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.88859299999999997</c:v>
+                  <c:v>0.59223899999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.92995700000000003</c:v>
+                  <c:v>0.49219499999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.80940900000000005</c:v>
+                  <c:v>0.48563299999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.72006400000000004</c:v>
+                  <c:v>0.46996500000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61039399999999999</c:v>
+                  <c:v>0.45971400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.52133600000000002</c:v>
+                  <c:v>0.44110199999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.47483700000000001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.44581900000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.416626</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.39471099999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.382295</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.368616</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.35569600000000001</c:v>
+                  <c:v>0.42558099999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,64 +1906,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.21790799999999999</c:v>
+                  <c:v>0.78650500000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.535443</c:v>
+                  <c:v>0.79750799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.694689</c:v>
+                  <c:v>0.80253399999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.694434</c:v>
+                  <c:v>0.80509200000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.73446299999999998</c:v>
+                  <c:v>0.80040199999999995</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.74150700000000003</c:v>
+                  <c:v>0.80020899999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.76619800000000005</c:v>
+                  <c:v>0.79778700000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.76290500000000006</c:v>
+                  <c:v>0.79961300000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.77503699999999998</c:v>
+                  <c:v>0.79928100000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76957399999999998</c:v>
+                  <c:v>0.79940599999999995</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.770119</c:v>
+                  <c:v>0.79768399999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.78441099999999997</c:v>
+                  <c:v>0.79824899999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.78189399999999998</c:v>
+                  <c:v>0.79840800000000001</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.783416</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.77708900000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.77388000000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.77264200000000005</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.78785400000000005</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.788385</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.78927599999999998</c:v>
+                  <c:v>0.79984699999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,7 +1958,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>100</c:v>
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>900</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2000</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>2000</c:v>
@@ -2059,16 +2022,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{665DE3A3-DB0D-4C1D-A687-7BB93BE06FD0}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{2DC79D95-3A3A-40E0-9084-CF783A9CD01D}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2092,16 +2055,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4FFC61BD-1DCF-4BB0-895A-F72B30901539}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{7C7DD7E1-EBF0-4BEF-BD74-564D8EFF8335}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2125,16 +2088,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CF9C6E5D-8C4E-412A-99A0-74EACE4782F5}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{686B68BB-6560-465B-BAE0-B4E9853A07A7}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2158,16 +2121,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3052E63A-20B4-467D-AD37-57811CC53392}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{E5CAFC29-A180-4D15-A5FD-229D95D1D935}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2191,16 +2154,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{460ECA33-7D91-43FF-9278-8FFDCCD74878}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{62310D95-D595-407E-B365-EA07D891A5A0}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2224,16 +2187,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E2B2A86F-4F4B-44E4-8E5D-B865BF3DCE9D}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{C38F8259-9302-4771-8C2B-857681865F51}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2257,16 +2220,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{2AE0A8D7-5779-4767-B9AF-710ABBEB48C7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{C28B77A7-912A-465B-992B-0BC443BBC9CC}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2290,16 +2253,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1A0D335A-7AA3-4B4E-BB48-31D37DF9E0E4}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{78E1B658-43E8-4851-A10B-2084DE094084}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2323,16 +2286,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{553FFAD9-444E-4849-83F0-F00FE9CAFDB2}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{0D46541B-98E8-4A68-A845-4A8A8BF17213}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2356,16 +2319,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7B7C6443-B766-4624-983C-AB397B2FE462}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{D59EEEA1-B147-4502-A3BE-BE004A0C194A}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2389,16 +2352,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F9F6494-9624-40C3-A28A-1A7B72F47E42}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{D1CD7EB7-70E1-4846-9D1F-FE5C58222BBA}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2422,16 +2385,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{167B07DB-A48A-4BCE-BF18-7C117D9783F7}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{E0AAB6B9-CBBA-488C-86D0-23C8CCC1A56B}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2455,16 +2418,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9DD4A0E9-07C9-423E-9A57-C75360D794D6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{6E1642A0-E28A-4EDE-BAD1-F26B3373661F}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2488,16 +2451,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3012CD8C-4B9F-406B-80AF-764419CCDA90}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="r"/>
+                    <a:fld id="{51BE38A4-64DE-4AFC-8EE4-8CB2CBEFB6F1}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -2530,18 +2493,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2563,18 +2525,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2596,18 +2557,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2629,18 +2589,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2662,18 +2621,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2695,18 +2653,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:dLblPos val="r"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -2725,7 +2682,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -2740,7 +2697,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
-            <c:dLblPos val="r"/>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2777,64 +2734,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1.0813820000000001</c:v>
+                  <c:v>1.864962</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9657529999999999</c:v>
+                  <c:v>2.1545649999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.4816020000000001</c:v>
+                  <c:v>2.3508719999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.5902130000000003</c:v>
+                  <c:v>1.9389110000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.351915</c:v>
+                  <c:v>1.3526659999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.5067280000000001</c:v>
+                  <c:v>0.94824299999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2963180000000001</c:v>
+                  <c:v>0.96902299999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.1574710000000001</c:v>
+                  <c:v>0.75725900000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.922612</c:v>
+                  <c:v>0.58233900000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.8201430000000001</c:v>
+                  <c:v>0.55859300000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.632992</c:v>
+                  <c:v>0.54871700000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.311499</c:v>
+                  <c:v>0.53029899999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.0889059999999999</c:v>
+                  <c:v>0.50092199999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.91026799999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.73465800000000003</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.681697</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.70041299999999995</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.65861199999999998</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.62365800000000005</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.60096400000000005</c:v>
+                  <c:v>0.477572</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2846,64 +2785,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.51402700000000001</c:v>
+                  <c:v>1.2115590000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.353593</c:v>
+                  <c:v>1.2235069999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.727892</c:v>
+                  <c:v>1.2285600000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.939532</c:v>
+                  <c:v>1.2275240000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.991187</c:v>
+                  <c:v>1.215233</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.1092019999999998</c:v>
+                  <c:v>1.198807</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1751170000000002</c:v>
+                  <c:v>1.1851769999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2206419999999998</c:v>
+                  <c:v>1.186704</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.1329229999999999</c:v>
+                  <c:v>1.1835230000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.1098750000000002</c:v>
+                  <c:v>1.1836469999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0903320000000001</c:v>
+                  <c:v>1.180955</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.0509979999999999</c:v>
+                  <c:v>1.1734830000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.0544099999999998</c:v>
+                  <c:v>1.17859</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.054071</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0142319999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.9966660000000001</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.0016929999999999</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.9813050000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.9827870000000001</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.959274</c:v>
+                  <c:v>1.1738759999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2916,7 +2837,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>100</c:v>
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>900</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2000</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>2000</c:v>
@@ -2971,15 +2901,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{87112DEB-984C-43C9-AE4D-F164D6C05C5B}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{EB248A9E-6CB0-4152-96FA-E6E8FE10E872}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3003,15 +2934,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D82CB0DA-BACD-4466-9D78-F045FE6CEDA6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{ECE707C8-82FB-4CBB-AEC6-63080EE40C6E}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3035,15 +2967,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7082D6D7-9828-49A0-AC92-CFE12CC98AE6}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{169FE739-7E97-4CFB-AF4F-D6EE4E46329A}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3067,15 +3000,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{27A9B5F7-F035-451F-B7BE-E6BC7802F830}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{8ED20CBE-D4DB-4DCD-965F-B2B543B22FA5}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3099,15 +3033,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AAD1CBD6-7E84-4757-908F-5BE7B8802C57}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{2F3EE51A-42B0-49D2-AB33-601D20A65543}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3131,15 +3066,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{53E6C9CF-9DA8-42A2-A68B-B94651FCC204}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{E7874207-273D-476C-B494-2443EF953404}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3163,15 +3099,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{66E71B36-6B34-43CC-8122-53C240DD01BA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{99AA6F55-2EF1-4DD9-934B-AA5181E44327}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3195,15 +3132,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0EB75AE6-7E61-466E-906D-270FE983CEDC}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{A519399C-24CF-4E84-BB61-5AFE42047180}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3227,15 +3165,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{98F0C792-F089-43F1-B214-6D7DC92C474C}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{F6E7A138-14A8-4E3E-AA14-F96D58FE5E97}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3259,15 +3198,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{AB1C2638-F54E-459F-BCC1-CE41ED369778}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{FEBAF6B0-9800-4B45-8883-9B084D6196AD}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3291,15 +3231,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C043B892-B0CF-4A97-B598-0DDAE5C2C678}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{C7F70E66-B16E-4CD2-A73F-1C69F8DF6D32}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3323,15 +3264,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{562EE730-7674-4625-9C1F-D1BF056D1559}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{F77D381D-17E4-410B-AB3D-EBA4B9DDA223}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3355,15 +3297,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{6F8A4BA7-D325-4EE5-A0E9-FED843352DBB}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{11F41C4A-938C-4E61-BABE-9E48EF3A7C62}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3387,15 +3330,16 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E0E049F8-A9B3-4724-B68B-4265AEA4ACDA}" type="CELLRANGE">
-                      <a:rPr lang="en-US"/>
-                      <a:pPr/>
-                      <a:t>[ZELLBEREICH]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="de-CH"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
+                    <a:fld id="{3314CD42-E8DD-4D68-91F8-49F46E807014}" type="CELLRANGE">
+                      <a:rPr lang="de-CH"/>
+                      <a:pPr/>
+                      <a:t>[ZELLBEREICH]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="de-CH"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="t"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -3428,17 +3372,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3460,17 +3404,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3492,17 +3436,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3524,17 +3468,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3556,17 +3500,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3588,17 +3532,17 @@
                   </a:p>
                 </c:rich>
               </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                  <c15:dlblFieldTable/>
-                  <c15:xForSave val="1"/>
+              <c:dLblPos val="t"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
                   <c15:showDataLabelsRange val="1"/>
                 </c:ext>
               </c:extLst>
@@ -3617,7 +3561,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -3632,6 +3576,7 @@
                 <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="t"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -3668,64 +3613,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.75173100000000004</c:v>
+                  <c:v>2.9500769999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9467620000000001</c:v>
+                  <c:v>3.3897740000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.8099989999999999</c:v>
+                  <c:v>3.8425579999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.406377</c:v>
+                  <c:v>3.0747659999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0636429999999999</c:v>
+                  <c:v>2.0603389999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85875900000000005</c:v>
+                  <c:v>1.436539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.351499</c:v>
+                  <c:v>1.4453389999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2204140000000001</c:v>
+                  <c:v>1.112201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.0011330000000001</c:v>
+                  <c:v>0.83415099999999998</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.95387</c:v>
+                  <c:v>0.79012700000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.82793899999999998</c:v>
+                  <c:v>0.78189500000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.69628000000000001</c:v>
+                  <c:v>0.75722400000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.61003099999999999</c:v>
+                  <c:v>0.71504500000000004</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.55671899999999996</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.48955399999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.445635</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.432585</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.36936000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.37163200000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.35750100000000001</c:v>
+                  <c:v>0.69362299999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3737,64 +3664,46 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>0.40439799999999998</c:v>
+                  <c:v>2.1928160000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2044280000000001</c:v>
+                  <c:v>2.2325789999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4989140000000001</c:v>
+                  <c:v>2.265387</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6936990000000001</c:v>
+                  <c:v>2.2596449999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.634004</c:v>
+                  <c:v>2.2104159999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.725392</c:v>
+                  <c:v>2.1741769999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7862800000000001</c:v>
+                  <c:v>2.1483289999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.758807</c:v>
+                  <c:v>2.127939</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.712569</c:v>
+                  <c:v>2.106357</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.712974</c:v>
+                  <c:v>2.0945550000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.6874769999999999</c:v>
+                  <c:v>2.0854529999999998</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.6710419999999999</c:v>
+                  <c:v>2.0506850000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.658201</c:v>
+                  <c:v>2.054468</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.6448</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.603788</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.613362</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.616066</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.92397600000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.5702039999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.473622</c:v>
+                  <c:v>2.0022199999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3807,7 +3716,16 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="20"/>
                   <c:pt idx="0">
-                    <c:v>100</c:v>
+                    <c:v>700</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>900</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1300</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>2000</c:v>
                   </c:pt>
                   <c:pt idx="19">
                     <c:v>2000</c:v>
@@ -4375,11 +4293,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="307325864"/>
-        <c:axId val="307358672"/>
+        <c:axId val="242283552"/>
+        <c:axId val="242278848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="307325864"/>
+        <c:axId val="242283552"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -4494,12 +4412,12 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307358672"/>
+        <c:crossAx val="242278848"/>
         <c:crossesAt val="2.5000000000000005E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="307358672"/>
+        <c:axId val="242278848"/>
         <c:scaling>
           <c:logBase val="2"/>
           <c:orientation val="minMax"/>
@@ -4558,7 +4476,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="307325864"/>
+        <c:crossAx val="242283552"/>
         <c:crossesAt val="2.5000000000000005E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5583,6 +5501,422 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.55682</cdr:x>
+      <cdr:y>0.5767</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.70548</cdr:x>
+      <cdr:y>0.6379</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="6" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4667228" y="2872438"/>
+          <a:ext cx="1246068" cy="304825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Reference</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60485</cdr:x>
+      <cdr:y>0.49623</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75351</cdr:x>
+      <cdr:y>0.55743</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="7" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5069815" y="2471635"/>
+          <a:ext cx="1246069" cy="304825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1600">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Scalar</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.64228</cdr:x>
+      <cdr:y>0.43201</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.79094</cdr:x>
+      <cdr:y>0.49321</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="8" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5383550" y="2151737"/>
+          <a:ext cx="1246068" cy="304825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="255E91"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SSE</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.60767</cdr:x>
+      <cdr:y>0.31135</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.75633</cdr:x>
+      <cdr:y>0.37255</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="Textfeld 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5093508" y="1550757"/>
+          <a:ext cx="1246068" cy="304825"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr lang="de-CH" sz="1600">
+              <a:solidFill>
+                <a:srgbClr val="9E480E"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AVX</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -5851,8 +6185,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N34" sqref="N34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5874,19 +6208,19 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" t="s">
+      <c r="P1" t="s">
         <v>10</v>
-      </c>
-      <c r="J1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
@@ -5899,31 +6233,31 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="C2">
-        <v>0.56933900000000004</v>
+        <v>1.0379119999999999</v>
       </c>
       <c r="D2">
-        <v>0.25823499999999999</v>
+        <v>0.48068</v>
       </c>
       <c r="E2">
-        <v>0.54643399999999998</v>
+        <v>1.4519629999999999</v>
       </c>
       <c r="F2">
-        <v>0.21790799999999999</v>
+        <v>0.78650500000000001</v>
       </c>
       <c r="G2">
-        <v>1.0813820000000001</v>
+        <v>1.864962</v>
       </c>
       <c r="H2">
-        <v>0.51402700000000001</v>
+        <v>1.2115590000000001</v>
       </c>
       <c r="I2">
-        <v>0.75173100000000004</v>
+        <v>2.9500769999999998</v>
       </c>
       <c r="J2">
-        <v>0.40439799999999998</v>
+        <v>2.1928160000000001</v>
       </c>
       <c r="P2">
-        <v>100</v>
+        <v>700</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -5936,28 +6270,28 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>0.20885999999999999</v>
+        <v>1.049004</v>
       </c>
       <c r="D3">
-        <v>0.417711</v>
+        <v>0.47358</v>
       </c>
       <c r="E3">
-        <v>0.93573099999999998</v>
+        <v>1.6618059999999999</v>
       </c>
       <c r="F3">
-        <v>0.535443</v>
+        <v>0.79750799999999999</v>
       </c>
       <c r="G3">
-        <v>2.9657529999999999</v>
+        <v>2.1545649999999998</v>
       </c>
       <c r="H3">
-        <v>1.353593</v>
+        <v>1.2235069999999999</v>
       </c>
       <c r="I3">
-        <v>1.9467620000000001</v>
+        <v>3.3897740000000001</v>
       </c>
       <c r="J3">
-        <v>1.2044280000000001</v>
+        <v>2.2325789999999999</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.3">
@@ -5965,28 +6299,31 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>0.27460699999999999</v>
+        <v>0.74773999999999996</v>
       </c>
       <c r="D4">
-        <v>0.40315099999999998</v>
+        <v>0.45042199999999999</v>
       </c>
       <c r="E4">
-        <v>1.851021</v>
+        <v>1.732972</v>
       </c>
       <c r="F4">
-        <v>0.694689</v>
+        <v>0.80253399999999997</v>
       </c>
       <c r="G4">
-        <v>3.4816020000000001</v>
+        <v>2.3508719999999999</v>
       </c>
       <c r="H4">
-        <v>1.727892</v>
+        <v>1.2285600000000001</v>
       </c>
       <c r="I4">
-        <v>1.8099989999999999</v>
+        <v>3.8425579999999999</v>
       </c>
       <c r="J4">
-        <v>1.4989140000000001</v>
+        <v>2.265387</v>
+      </c>
+      <c r="P4">
+        <v>900</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -5997,28 +6334,28 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>0.28937200000000002</v>
+        <v>1.132199</v>
       </c>
       <c r="D5">
-        <v>0.45447599999999999</v>
+        <v>0.477493</v>
       </c>
       <c r="E5">
-        <v>0.52551300000000001</v>
+        <v>1.4245829999999999</v>
       </c>
       <c r="F5">
-        <v>0.694434</v>
+        <v>0.80509200000000003</v>
       </c>
       <c r="G5">
-        <v>4.5902130000000003</v>
+        <v>1.9389110000000001</v>
       </c>
       <c r="H5">
-        <v>1.939532</v>
+        <v>1.2275240000000001</v>
       </c>
       <c r="I5">
-        <v>3.406377</v>
+        <v>3.0747659999999999</v>
       </c>
       <c r="J5">
-        <v>1.6936990000000001</v>
+        <v>2.2596449999999999</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
@@ -6029,28 +6366,28 @@
         <v>1</v>
       </c>
       <c r="C6">
-        <v>0.52569900000000003</v>
+        <v>0.98288699999999996</v>
       </c>
       <c r="D6">
-        <v>0.47169899999999998</v>
+        <v>0.46513500000000002</v>
       </c>
       <c r="E6">
-        <v>0.41557899999999998</v>
+        <v>1.0179609999999999</v>
       </c>
       <c r="F6">
-        <v>0.73446299999999998</v>
+        <v>0.80040199999999995</v>
       </c>
       <c r="G6">
-        <v>1.351915</v>
+        <v>1.3526659999999999</v>
       </c>
       <c r="H6">
-        <v>1.991187</v>
+        <v>1.215233</v>
       </c>
       <c r="I6">
-        <v>1.0636429999999999</v>
+        <v>2.0603389999999999</v>
       </c>
       <c r="J6">
-        <v>1.634004</v>
+        <v>2.2104159999999999</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -6058,28 +6395,28 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0.56986000000000003</v>
+        <v>0.70998499999999998</v>
       </c>
       <c r="D7">
-        <v>0.44168800000000003</v>
+        <v>0.43133199999999999</v>
       </c>
       <c r="E7">
-        <v>0.68193400000000004</v>
+        <v>0.79296500000000003</v>
       </c>
       <c r="F7">
-        <v>0.74150700000000003</v>
+        <v>0.80020899999999995</v>
       </c>
       <c r="G7">
-        <v>1.5067280000000001</v>
+        <v>0.94824299999999995</v>
       </c>
       <c r="H7">
-        <v>2.1092019999999998</v>
+        <v>1.198807</v>
       </c>
       <c r="I7">
-        <v>0.85875900000000005</v>
+        <v>1.436539</v>
       </c>
       <c r="J7">
-        <v>1.725392</v>
+        <v>2.1741769999999998</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
@@ -6090,28 +6427,31 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>0.53290099999999996</v>
+        <v>0.53452100000000002</v>
       </c>
       <c r="D8">
-        <v>0.41598299999999999</v>
+        <v>0.39941100000000002</v>
       </c>
       <c r="E8">
-        <v>0.86881799999999998</v>
+        <v>0.67207799999999995</v>
       </c>
       <c r="F8">
-        <v>0.76619800000000005</v>
+        <v>0.79778700000000002</v>
       </c>
       <c r="G8">
-        <v>1.2963180000000001</v>
+        <v>0.96902299999999997</v>
       </c>
       <c r="H8">
-        <v>2.1751170000000002</v>
+        <v>1.1851769999999999</v>
       </c>
       <c r="I8">
-        <v>1.351499</v>
+        <v>1.4453389999999999</v>
       </c>
       <c r="J8">
-        <v>1.7862800000000001</v>
+        <v>2.1483289999999999</v>
+      </c>
+      <c r="P8">
+        <v>1300</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -6122,28 +6462,28 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>0.46197100000000002</v>
+        <v>0.399285</v>
       </c>
       <c r="D9">
-        <v>0.39249000000000001</v>
+        <v>0.35965399999999997</v>
       </c>
       <c r="E9">
-        <v>0.88859299999999997</v>
+        <v>0.59223899999999996</v>
       </c>
       <c r="F9">
-        <v>0.76290500000000006</v>
+        <v>0.79961300000000002</v>
       </c>
       <c r="G9">
-        <v>2.1574710000000001</v>
+        <v>0.75725900000000002</v>
       </c>
       <c r="H9">
-        <v>2.2206419999999998</v>
+        <v>1.186704</v>
       </c>
       <c r="I9">
-        <v>1.2204140000000001</v>
+        <v>1.112201</v>
       </c>
       <c r="J9">
-        <v>1.758807</v>
+        <v>2.127939</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
@@ -6151,28 +6491,28 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>0.538995</v>
+        <v>0.37590299999999999</v>
       </c>
       <c r="D10">
-        <v>0.37805800000000001</v>
+        <v>0.35368500000000003</v>
       </c>
       <c r="E10">
-        <v>0.92995700000000003</v>
+        <v>0.49219499999999999</v>
       </c>
       <c r="F10">
-        <v>0.77503699999999998</v>
+        <v>0.79928100000000002</v>
       </c>
       <c r="G10">
-        <v>1.922612</v>
+        <v>0.58233900000000005</v>
       </c>
       <c r="H10">
-        <v>2.1329229999999999</v>
+        <v>1.1835230000000001</v>
       </c>
       <c r="I10">
-        <v>1.0011330000000001</v>
+        <v>0.83415099999999998</v>
       </c>
       <c r="J10">
-        <v>1.712569</v>
+        <v>2.106357</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -6183,28 +6523,28 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>0.46116200000000002</v>
+        <v>0.32942199999999999</v>
       </c>
       <c r="D11">
-        <v>0.35594399999999998</v>
+        <v>0.33641500000000002</v>
       </c>
       <c r="E11">
-        <v>0.80940900000000005</v>
+        <v>0.48563299999999998</v>
       </c>
       <c r="F11">
-        <v>0.76957399999999998</v>
+        <v>0.79940599999999995</v>
       </c>
       <c r="G11">
-        <v>1.8201430000000001</v>
+        <v>0.55859300000000001</v>
       </c>
       <c r="H11">
-        <v>2.1098750000000002</v>
+        <v>1.1836469999999999</v>
       </c>
       <c r="I11">
-        <v>0.95387</v>
+        <v>0.79012700000000002</v>
       </c>
       <c r="J11">
-        <v>1.712974</v>
+        <v>2.0945550000000002</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
@@ -6215,263 +6555,112 @@
         <v>4</v>
       </c>
       <c r="C12">
-        <v>0.382716</v>
+        <v>0.29983799999999999</v>
       </c>
       <c r="D12">
-        <v>0.33380199999999999</v>
+        <v>0.32669599999999999</v>
       </c>
       <c r="E12">
-        <v>0.72006400000000004</v>
+        <v>0.46996500000000002</v>
       </c>
       <c r="F12">
-        <v>0.770119</v>
+        <v>0.79768399999999995</v>
       </c>
       <c r="G12">
-        <v>1.632992</v>
+        <v>0.54871700000000001</v>
       </c>
       <c r="H12">
-        <v>2.0903320000000001</v>
+        <v>1.180955</v>
       </c>
       <c r="I12">
-        <v>0.82793899999999998</v>
+        <v>0.78189500000000001</v>
       </c>
       <c r="J12">
-        <v>1.6874769999999999</v>
+        <v>2.0854529999999998</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C13">
-        <v>0.332847</v>
+        <v>0.27495799999999998</v>
       </c>
       <c r="D13">
-        <v>0.30955100000000002</v>
+        <v>0.31762800000000002</v>
       </c>
       <c r="E13">
-        <v>0.61039399999999999</v>
+        <v>0.45971400000000001</v>
       </c>
       <c r="F13">
-        <v>0.78441099999999997</v>
+        <v>0.79824899999999999</v>
       </c>
       <c r="G13">
-        <v>1.311499</v>
+        <v>0.53029899999999996</v>
       </c>
       <c r="H13">
-        <v>2.0509979999999999</v>
+        <v>1.1734830000000001</v>
       </c>
       <c r="I13">
-        <v>0.69628000000000001</v>
+        <v>0.75722400000000001</v>
       </c>
       <c r="J13">
-        <v>1.6710419999999999</v>
+        <v>2.0506850000000001</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C14">
-        <v>0.31190000000000001</v>
+        <v>0.27063100000000001</v>
       </c>
       <c r="D14">
-        <v>0.31243900000000002</v>
+        <v>0.31678499999999998</v>
       </c>
       <c r="E14">
-        <v>0.52133600000000002</v>
+        <v>0.44110199999999999</v>
       </c>
       <c r="F14">
-        <v>0.78189399999999998</v>
+        <v>0.79840800000000001</v>
       </c>
       <c r="G14">
-        <v>1.0889059999999999</v>
+        <v>0.50092199999999998</v>
       </c>
       <c r="H14">
-        <v>2.0544099999999998</v>
+        <v>1.17859</v>
       </c>
       <c r="I14">
-        <v>0.61003099999999999</v>
+        <v>0.71504500000000004</v>
       </c>
       <c r="J14">
-        <v>1.658201</v>
+        <v>2.054468</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="C15">
-        <v>0.28401399999999999</v>
+        <v>0.26322299999999998</v>
       </c>
       <c r="D15">
-        <v>0.30372100000000002</v>
+        <v>0.31617000000000001</v>
       </c>
       <c r="E15">
-        <v>0.47483700000000001</v>
+        <v>0.42558099999999999</v>
       </c>
       <c r="F15">
-        <v>0.783416</v>
+        <v>0.79984699999999997</v>
       </c>
       <c r="G15">
-        <v>0.91026799999999997</v>
+        <v>0.477572</v>
       </c>
       <c r="H15">
-        <v>2.054071</v>
+        <v>1.1738759999999999</v>
       </c>
       <c r="I15">
-        <v>0.55671899999999996</v>
+        <v>0.69362299999999999</v>
       </c>
       <c r="J15">
-        <v>1.6448</v>
+        <v>2.0022199999999999</v>
+      </c>
+      <c r="P15">
+        <v>2000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="C16">
-        <v>0.28099299999999999</v>
-      </c>
-      <c r="D16">
-        <v>0.29991400000000001</v>
-      </c>
-      <c r="E16">
-        <v>0.44581900000000002</v>
-      </c>
-      <c r="F16">
-        <v>0.77708900000000003</v>
-      </c>
-      <c r="G16">
-        <v>0.73465800000000003</v>
-      </c>
-      <c r="H16">
-        <v>2.0142319999999998</v>
-      </c>
-      <c r="I16">
-        <v>0.48955399999999999</v>
-      </c>
-      <c r="J16">
-        <v>1.603788</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <v>0.26733499999999999</v>
-      </c>
-      <c r="D17">
-        <v>0.29736499999999999</v>
-      </c>
-      <c r="E17">
-        <v>0.416626</v>
-      </c>
-      <c r="F17">
-        <v>0.77388000000000001</v>
-      </c>
-      <c r="G17">
-        <v>0.681697</v>
-      </c>
-      <c r="H17">
-        <v>1.9966660000000001</v>
-      </c>
-      <c r="I17">
-        <v>0.445635</v>
-      </c>
-      <c r="J17">
-        <v>1.613362</v>
-      </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C18">
-        <v>0.26852399999999998</v>
-      </c>
-      <c r="D18">
-        <v>0.292908</v>
-      </c>
-      <c r="E18">
-        <v>0.39471099999999998</v>
-      </c>
-      <c r="F18">
-        <v>0.77264200000000005</v>
-      </c>
-      <c r="G18">
-        <v>0.70041299999999995</v>
-      </c>
-      <c r="H18">
-        <v>2.0016929999999999</v>
-      </c>
-      <c r="I18">
-        <v>0.432585</v>
-      </c>
-      <c r="J18">
-        <v>1.616066</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <v>0.257467</v>
-      </c>
-      <c r="D19">
-        <v>0.29342400000000002</v>
-      </c>
-      <c r="E19">
-        <v>0.382295</v>
-      </c>
-      <c r="F19">
-        <v>0.78785400000000005</v>
-      </c>
-      <c r="G19">
-        <v>0.65861199999999998</v>
-      </c>
-      <c r="H19">
-        <v>1.9813050000000001</v>
-      </c>
-      <c r="I19">
-        <v>0.36936000000000002</v>
-      </c>
-      <c r="J19">
-        <v>0.92397600000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <v>0.27164899999999997</v>
-      </c>
-      <c r="D20">
-        <v>0.294099</v>
-      </c>
-      <c r="E20">
-        <v>0.368616</v>
-      </c>
-      <c r="F20">
-        <v>0.788385</v>
-      </c>
-      <c r="G20">
-        <v>0.62365800000000005</v>
-      </c>
-      <c r="H20">
-        <v>1.9827870000000001</v>
-      </c>
-      <c r="I20">
-        <v>0.37163200000000002</v>
-      </c>
-      <c r="J20">
-        <v>1.5702039999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <v>0.26516000000000001</v>
-      </c>
-      <c r="D21">
-        <v>0.29259200000000002</v>
-      </c>
-      <c r="E21">
-        <v>0.35569600000000001</v>
-      </c>
-      <c r="F21">
-        <v>0.78927599999999998</v>
-      </c>
-      <c r="G21">
-        <v>0.60096400000000005</v>
-      </c>
-      <c r="H21">
-        <v>1.959274</v>
-      </c>
-      <c r="I21">
-        <v>0.35750100000000001</v>
-      </c>
-      <c r="J21">
-        <v>1.473622</v>
-      </c>
+    <row r="21" spans="16:16" x14ac:dyDescent="0.3">
       <c r="P21">
         <v>2000</v>
       </c>
